--- a/SuppXLS/Scen_ELC_SNSP.xlsx
+++ b/SuppXLS/Scen_ELC_SNSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE797B-2777-41C2-B4DE-8DF14127AF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F1D1F-3610-4199-A000-CED291673373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UCT1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Pset_PN</t>
   </si>
   <si>
-    <t>E*OCE*,E*SOL*,E*WIN*</t>
-  </si>
-  <si>
     <t xml:space="preserve">~UC_T: </t>
   </si>
   <si>
@@ -122,7 +119,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>E*,-E*OCE*,-E*SOL*,-E*WIN*</t>
+    <t>P*,-P*OCE*,-P*SOL*,-P*WIN*</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P*OCE*,P*SOL*,P*WIN*</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -131,13 +132,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,6 +164,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -213,7 +222,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,11 +231,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,32 +579,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="21.19921875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="21.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -610,7 +619,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -627,7 +636,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -637,14 +646,14 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -676,46 +685,46 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -743,21 +752,21 @@
         <v>5</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -780,7 +789,7 @@
       <c r="S9" s="12"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -792,7 +801,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="14"/>
@@ -800,7 +809,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12" s="14"/>
@@ -808,7 +817,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="M13" s="9"/>
       <c r="N13" s="14"/>
@@ -816,7 +825,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="M14" s="9"/>
       <c r="N14" s="14"/>

--- a/SuppXLS/Scen_ELC_SNSP.xlsx
+++ b/SuppXLS/Scen_ELC_SNSP.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\I3p0_ELC_12TS_1REG_2020.11.18\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F1D1F-3610-4199-A000-CED291673373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473C021-3BF6-48EA-BBC9-9E822D2B13AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UCT1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regions" sheetId="2" r:id="rId1"/>
+    <sheet name="UCT1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,8 +49,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>UC_N</t>
   </si>
@@ -73,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">~UC_T: </t>
-  </si>
-  <si>
-    <t>~UC_Sets: R_E: IE</t>
   </si>
   <si>
     <t>UC_Desc</t>
@@ -125,6 +163,204 @@
   <si>
     <t>P*OCE*,P*SOL*,P*WIN*</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Single-region</t>
+  </si>
+  <si>
+    <t>Multi-region</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>County name</t>
+  </si>
+  <si>
+    <t>IE-CW</t>
+  </si>
+  <si>
+    <t>Carlow</t>
+  </si>
+  <si>
+    <t>IE-CN</t>
+  </si>
+  <si>
+    <t>Cavan</t>
+  </si>
+  <si>
+    <t>IE-CE</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>IE-CO</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>IE-DL</t>
+  </si>
+  <si>
+    <t>Donegal</t>
+  </si>
+  <si>
+    <t>IE-D</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>IE-G</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>IE-KY</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>IE-KE</t>
+  </si>
+  <si>
+    <t>Kildare</t>
+  </si>
+  <si>
+    <t>IE-KK</t>
+  </si>
+  <si>
+    <t>Kilkenny</t>
+  </si>
+  <si>
+    <t>IE-LS</t>
+  </si>
+  <si>
+    <t>Laois</t>
+  </si>
+  <si>
+    <t>IE-LM</t>
+  </si>
+  <si>
+    <t>Leitrim</t>
+  </si>
+  <si>
+    <t>IE-LK</t>
+  </si>
+  <si>
+    <t>Limerick</t>
+  </si>
+  <si>
+    <t>IE-LD</t>
+  </si>
+  <si>
+    <t>Longford</t>
+  </si>
+  <si>
+    <t>IE-LH</t>
+  </si>
+  <si>
+    <t>Louth</t>
+  </si>
+  <si>
+    <t>IE-MO</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>IE-MH</t>
+  </si>
+  <si>
+    <t>Meath</t>
+  </si>
+  <si>
+    <t>IE-MN</t>
+  </si>
+  <si>
+    <t>Monaghan</t>
+  </si>
+  <si>
+    <t>IE-OY</t>
+  </si>
+  <si>
+    <t>Offaly</t>
+  </si>
+  <si>
+    <t>IE-RN</t>
+  </si>
+  <si>
+    <t>Roscommon</t>
+  </si>
+  <si>
+    <t>IE-SO</t>
+  </si>
+  <si>
+    <t>Sligo</t>
+  </si>
+  <si>
+    <t>IE-TA</t>
+  </si>
+  <si>
+    <t>Tipperary</t>
+  </si>
+  <si>
+    <t>IE-WD</t>
+  </si>
+  <si>
+    <t>Waterford</t>
+  </si>
+  <si>
+    <t>IE-WH</t>
+  </si>
+  <si>
+    <t>Westmeath</t>
+  </si>
+  <si>
+    <t>IE-WX</t>
+  </si>
+  <si>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>IE-WW</t>
+  </si>
+  <si>
+    <t>Wicklow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -132,13 +368,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,13 +404,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,11 +443,82 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -212,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -222,7 +537,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -231,13 +546,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,6 +580,73 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,36 +969,803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F7697C-7A2A-4556-ABEE-007B73337179}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A3:AD37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:30">
+      <c r="C3" s="20" t="str" cm="1">
+        <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
+        <v>IE</v>
+      </c>
+      <c r="D3" s="20" t="str" cm="1">
+        <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
+        <v>National</v>
+      </c>
+      <c r="E3" s="20" t="str" cm="1">
+        <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F3" s="20" t="str" cm="1">
+        <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G3" s="20" t="str" cm="1">
+        <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H3" s="20" t="str" cm="1">
+        <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I3" s="20" t="str" cm="1">
+        <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J3" s="20" t="str" cm="1">
+        <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K3" s="20" t="str" cm="1">
+        <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L3" s="20" t="str" cm="1">
+        <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M3" s="20" t="str" cm="1">
+        <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N3" s="20" t="str" cm="1">
+        <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O3" s="20" t="str" cm="1">
+        <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P3" s="20" t="str" cm="1">
+        <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q3" s="20" t="str" cm="1">
+        <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R3" s="20" t="str" cm="1">
+        <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S3" s="20" t="str" cm="1">
+        <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T3" s="20" t="str" cm="1">
+        <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U3" s="20" t="str" cm="1">
+        <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V3" s="20" t="str" cm="1">
+        <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W3" s="20" t="str" cm="1">
+        <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X3" s="20" t="str" cm="1">
+        <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y3" s="20" t="str" cm="1">
+        <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z3" s="20" t="str" cm="1">
+        <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA3" s="20" t="str" cm="1">
+        <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB3" s="20" t="str" cm="1">
+        <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC3" s="20" t="str" cm="1">
+        <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD3" s="20" t="str" cm="1">
+        <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20" t="str">
+        <f>A11</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F5" s="20" t="str">
+        <f>A16</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G5" s="20" t="str">
+        <f>A19</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H5" s="20" t="str">
+        <f>A20</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I5" s="20" t="str">
+        <f>A21</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J5" s="20" t="str">
+        <f>A24</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K5" s="20" t="str">
+        <f>A25</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L5" s="20" t="str">
+        <f>A27</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M5" s="20" t="str">
+        <f>A29</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N5" s="20" t="str">
+        <f>A34</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O5" s="20" t="str">
+        <f>A35</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P5" s="20" t="str">
+        <f>A36</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q5" s="20" t="str">
+        <f>A13</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R5" s="20" t="str">
+        <f>A14</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S5" s="20" t="str">
+        <f>A18</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T5" s="20" t="str">
+        <f>A23</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U5" s="20" t="str">
+        <f>A32</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V5" s="20" t="str">
+        <f>A33</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W5" s="20" t="str">
+        <f>A17</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X5" s="20" t="str">
+        <f>A22</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y5" s="20" t="str">
+        <f>A26</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z5" s="20" t="str">
+        <f>A30</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA5" s="20" t="str">
+        <f>A31</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB5" s="20" t="str">
+        <f>A12</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC5" s="20" t="str">
+        <f>A15</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD5" s="20" t="str">
+        <f>A28</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f>C5</f>
+        <v>IE</v>
+      </c>
+      <c r="D6" s="20" t="str">
+        <f>"*"&amp;D5</f>
+        <v>*National</v>
+      </c>
+      <c r="E6" s="20" t="str">
+        <f>"*"&amp;E5</f>
+        <v>*IE-CW</v>
+      </c>
+      <c r="F6" s="20" t="str">
+        <f t="shared" ref="F6:AD6" si="0">"*"&amp;F5</f>
+        <v>*IE-D</v>
+      </c>
+      <c r="G6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KE</v>
+      </c>
+      <c r="H6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KK</v>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LS</v>
+      </c>
+      <c r="J6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LD</v>
+      </c>
+      <c r="K6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LH</v>
+      </c>
+      <c r="L6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MH</v>
+      </c>
+      <c r="M6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-OY</v>
+      </c>
+      <c r="N6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WH</v>
+      </c>
+      <c r="O6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WX</v>
+      </c>
+      <c r="P6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WW</v>
+      </c>
+      <c r="Q6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CE</v>
+      </c>
+      <c r="R6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CO</v>
+      </c>
+      <c r="S6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KY</v>
+      </c>
+      <c r="T6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LK</v>
+      </c>
+      <c r="U6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-TA</v>
+      </c>
+      <c r="V6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WD</v>
+      </c>
+      <c r="W6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-G</v>
+      </c>
+      <c r="X6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LM</v>
+      </c>
+      <c r="Y6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MO</v>
+      </c>
+      <c r="Z6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-RN</v>
+      </c>
+      <c r="AA6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-SO</v>
+      </c>
+      <c r="AB6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CN</v>
+      </c>
+      <c r="AC6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-DL</v>
+      </c>
+      <c r="AD6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>"*"&amp;C5</f>
+        <v>*IE</v>
+      </c>
+      <c r="D7" s="20" t="str">
+        <f>D5</f>
+        <v>National</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f t="shared" ref="E7:AD7" si="1">E5</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-D</v>
+      </c>
+      <c r="G7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="H7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="I7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="J7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="L7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="M7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="N7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="O7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="P7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="R7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="S7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="T7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="U7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="V7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="W7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-G</v>
+      </c>
+      <c r="X7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+      <c r="A10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="21.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="21.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+    <row r="4" spans="1:20">
+      <c r="B4" s="5" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"~UC_Sets: R_E:",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+        <v>~UC_Sets: R_E: IE,National</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -619,7 +1780,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -636,7 +1797,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -653,7 +1814,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -685,46 +1846,46 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -752,21 +1913,21 @@
         <v>5</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="14.5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" s="1"/>
       <c r="C9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -789,7 +1950,7 @@
       <c r="S9" s="12"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -801,7 +1962,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="H11" s="3"/>
       <c r="M11" s="9"/>
       <c r="N11" s="14"/>
@@ -809,7 +1970,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="H12" s="3"/>
       <c r="M12" s="9"/>
       <c r="N12" s="14"/>
@@ -817,7 +1978,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="H13" s="3"/>
       <c r="M13" s="9"/>
       <c r="N13" s="14"/>
@@ -825,7 +1986,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="H14" s="3"/>
       <c r="M14" s="9"/>
       <c r="N14" s="14"/>

--- a/SuppXLS/Scen_ELC_SNSP.xlsx
+++ b/SuppXLS/Scen_ELC_SNSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473C021-3BF6-48EA-BBC9-9E822D2B13AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D05DE-34DD-438E-B7B0-708A7582BB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="2" r:id="rId1"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ELCC,ELCD</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>UC_FLO~2020</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -361,6 +357,9 @@
       </rPr>
       <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
     </r>
+  </si>
+  <si>
+    <t>ELCC</t>
   </si>
 </sst>
 </file>
@@ -1130,13 +1129,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="20" t="str">
         <f>A11</f>
@@ -1245,7 +1244,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>C5</f>
@@ -1362,7 +1361,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>"*"&amp;C5</f>
@@ -1479,223 +1478,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1739,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1846,10 +1845,10 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>17</v>
@@ -1875,17 +1874,17 @@
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1919,15 +1918,15 @@
     <row r="9" spans="1:20">
       <c r="B9" s="1"/>
       <c r="C9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
